--- a/results_curr/DT/375Hz_2classes/Most Important Features/res_hyperopt_most_imp_feat.xlsx
+++ b/results_curr/DT/375Hz_2classes/Most Important Features/res_hyperopt_most_imp_feat.xlsx
@@ -1,37 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\ForGit_curr\results_curr\DT\375Hz_2classes\Most Important Features\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ADFA80-9D9F-4246-99F7-AE0446325EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>acc_train</t>
+  </si>
+  <si>
+    <t>acc_test</t>
+  </si>
+  <si>
+    <t>hyperparameters</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>{'max_depth': 98, 'max_features': 0.7269576449669322, 'min_samples_split': 0.4436987198509955, 'min_weight_fraction_leaf': 0.2275872369592966}</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'max_features': 0.5654949313523495, 'min_samples_split': 0.04439959250580518, 'min_weight_fraction_leaf': 0.018187351126436047}</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>{'max_depth': 41, 'max_features': 0.929534307979305, 'min_samples_split': 0.3117312077403253, 'min_weight_fraction_leaf': 0.16369173577969048}</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>{'max_depth': 58, 'max_features': 0.5727614767715941, 'min_samples_split': 0.22341320290344177, 'min_weight_fraction_leaf': 0.029551429133586604}</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>{'max_depth': 50, 'max_features': 0.8835080125971811, 'min_samples_split': 0.1866847317694683, 'min_weight_fraction_leaf': 0.01788444032609038}</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>{'max_depth': 26, 'max_features': 0.0156617133299185, 'min_samples_split': 0.4029939355929143, 'min_weight_fraction_leaf': 0.18422184033331368}</t>
+  </si>
+  <si>
+    <t>R1_T1</t>
+  </si>
+  <si>
+    <t>{'max_depth': 95, 'max_features': 0.7740012031131531, 'min_samples_split': 0.1221938407761022, 'min_weight_fraction_leaf': 0.07056861297790001}</t>
+  </si>
+  <si>
+    <t>R1_T2</t>
+  </si>
+  <si>
+    <t>{'max_depth': 91, 'max_features': 0.7531643669486515, 'min_samples_split': 0.07782894214137653, 'min_weight_fraction_leaf': 0.11217690696763577}</t>
+  </si>
+  <si>
+    <t>R1_T3</t>
+  </si>
+  <si>
+    <t>{'max_depth': 62, 'max_features': 0.5407510281074329, 'min_samples_split': 0.009833524051868759, 'min_weight_fraction_leaf': 0.171922212310684}</t>
+  </si>
+  <si>
+    <t>R2_T1</t>
+  </si>
+  <si>
+    <t>{'max_depth': 24, 'max_features': 0.4179824901342179, 'min_samples_split': 0.6201051907047223, 'min_weight_fraction_leaf': 0.44320383631939675}</t>
+  </si>
+  <si>
+    <t>R2_T2</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'max_features': 0.7417130542609259, 'min_samples_split': 0.08625125506776662, 'min_weight_fraction_leaf': 0.015441045318429436}</t>
+  </si>
+  <si>
+    <t>R2_T3</t>
+  </si>
+  <si>
+    <t>{'max_depth': 94, 'max_features': 0.7686025352515659, 'min_samples_split': 0.5839316881188101, 'min_weight_fraction_leaf': 0.386355767112336}</t>
+  </si>
+  <si>
+    <t>R3_T1</t>
+  </si>
+  <si>
+    <t>{'max_depth': 29, 'max_features': 0.11547435832442685, 'min_samples_split': 0.3203803096311752, 'min_weight_fraction_leaf': 0.006980831337157378}</t>
+  </si>
+  <si>
+    <t>R3_T2</t>
+  </si>
+  <si>
+    <t>{'max_depth': 74, 'max_features': 0.5589449599415198, 'min_samples_split': 0.3720611125619179, 'min_weight_fraction_leaf': 0.06647177476232546}</t>
+  </si>
+  <si>
+    <t>R3_T3</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'max_features': 0.15749715123492367, 'min_samples_split': 0.09449385117262989, 'min_weight_fraction_leaf': 0.005210081814311818}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +175,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,354 +500,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>acc_train</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>acc_test</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>hyperparameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>0.74</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.86</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{'max_depth': 98, 'max_features': 0.7269576449669322, 'min_samples_split': 0.4436987198509955, 'min_weight_fraction_leaf': 0.2275872369592966}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.81</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{'max_depth': 5, 'max_features': 0.5654949313523495, 'min_samples_split': 0.04439959250580518, 'min_weight_fraction_leaf': 0.018187351126436047}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.69</v>
+      </c>
+      <c r="D4">
         <v>0.67</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{'max_depth': 41, 'max_features': 0.929534307979305, 'min_samples_split': 0.3117312077403253, 'min_weight_fraction_leaf': 0.16369173577969048}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>0.71</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.79</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{'max_depth': 58, 'max_features': 0.5727614767715941, 'min_samples_split': 0.22341320290344177, 'min_weight_fraction_leaf': 0.029551429133586604}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.81</v>
+      </c>
+      <c r="D6">
         <v>0.77</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{'max_depth': 50, 'max_features': 0.8835080125971811, 'min_samples_split': 0.1866847317694683, 'min_weight_fraction_leaf': 0.01788444032609038}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>0.8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.77</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{'max_depth': 26, 'max_features': 0.0156617133299185, 'min_samples_split': 0.4029939355929143, 'min_weight_fraction_leaf': 0.18422184033331368}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R1_T1</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
         <v>0.84</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.98</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{'max_depth': 95, 'max_features': 0.7740012031131531, 'min_samples_split': 0.1221938407761022, 'min_weight_fraction_leaf': 0.07056861297790001}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>R1_T2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>0.76</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.85</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{'max_depth': 91, 'max_features': 0.7531643669486515, 'min_samples_split': 0.07782894214137653, 'min_weight_fraction_leaf': 0.11217690696763577}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>R1_T3</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>0.73</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.87</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{'max_depth': 62, 'max_features': 0.5407510281074329, 'min_samples_split': 0.009833524051868759, 'min_weight_fraction_leaf': 0.171922212310684}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>R2_T1</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
         <v>0.67</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.67</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{'max_depth': 24, 'max_features': 0.4179824901342179, 'min_samples_split': 0.6201051907047223, 'min_weight_fraction_leaf': 0.44320383631939675}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>R2_T2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>0.8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.7</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{'max_depth': 8, 'max_features': 0.7417130542609259, 'min_samples_split': 0.08625125506776662, 'min_weight_fraction_leaf': 0.015441045318429436}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>R2_T3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
         <v>0.67</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.67</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{'max_depth': 94, 'max_features': 0.7686025352515659, 'min_samples_split': 0.5839316881188101, 'min_weight_fraction_leaf': 0.386355767112336}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>R3_T1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>0.79</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.85</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>{'max_depth': 29, 'max_features': 0.11547435832442685, 'min_samples_split': 0.3203803096311752, 'min_weight_fraction_leaf': 0.006980831337157378}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>R3_T2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <v>0.75</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.67</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>{'max_depth': 74, 'max_features': 0.5589449599415198, 'min_samples_split': 0.3720611125619179, 'min_weight_fraction_leaf': 0.06647177476232546}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>R3_T3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
         <v>0.86</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.77</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>{'max_depth': 15, 'max_features': 0.15749715123492367, 'min_samples_split': 0.09449385117262989, 'min_weight_fraction_leaf': 0.005210081814311818}</t>
-        </is>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f>AVERAGE(C2:C16)</f>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <f>AVERAGE(D2:D16)</f>
+        <v>0.77266666666666661</v>
       </c>
     </row>
   </sheetData>
